--- a/price-of-prisons-state-survey-data.xlsx
+++ b/price-of-prisons-state-survey-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Liza/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Liza/Desktop/Maine-Prisoner-s-Advocacy-Coalition-Project-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDBF504-F13A-E744-9C2E-3F57AD50FF11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0F25B5-DD59-5B46-8DE4-BF3949089F30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1820" yWindow="460" windowWidth="26500" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,10 +253,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -345,7 +344,6 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -365,6 +363,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -655,13 +654,13 @@
   <dimension ref="A1:W103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L4" sqref="L4"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E46" activeCellId="1" sqref="B2:B46 E2:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
@@ -677,2317 +676,2317 @@
     <col min="17" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="9" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" s="8" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="17">
         <v>14779.59</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>4853875</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>650.26</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="17">
         <v>96.11</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>31873</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>31563</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>-9.7000000000000003E-3</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="17">
         <v>482710816.77999997</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="17">
         <v>466488094</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <v>-3.3599999999999998E-2</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="15">
         <v>0.38719999999999999</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="15">
         <v>0.15210000000000001</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="15">
         <v>1.78E-2</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="15">
         <v>0.21609999999999999</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="15">
         <v>0.2268</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="17">
         <v>52632.800000000003</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>737709</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>814.68</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="17">
         <v>428.79</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>5461</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>6010</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>0.10050000000000001</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="17">
         <v>279939650.50999999</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="17">
         <v>316323122.83999997</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="15">
         <v>0.13</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="15">
         <v>0.38850000000000001</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="15">
         <v>0.23130000000000001</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="15">
         <v>0.1113</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="15">
         <v>6.2E-2</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="15">
         <v>0.2069</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="17">
         <v>25396.87</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>6817565</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>617.98</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="17">
         <v>156.94999999999999</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>40457.9</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>42131.130000000005</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="17">
         <v>1058588444.1799999</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="17">
         <v>1069998637.91</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="15">
         <v>0.37090000000000001</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <v>0.187</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="15">
         <v>0.1333</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="15">
         <v>0.12759999999999999</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="15">
         <v>0.18110000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="17">
         <v>20914.75</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>2977853</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>597.24</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="17">
         <v>124.91</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>14800</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>17785</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>0.20169999999999999</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="17">
         <v>346075665.83999997</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="17">
         <v>371968841.00999999</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <v>7.4800000000000005E-2</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="15">
         <v>0.44700000000000001</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="15">
         <v>0.15970000000000001</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="15">
         <v>6.0600000000000001E-2</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="15">
         <v>0.15409999999999999</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="15">
         <v>0.17849999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="17">
         <v>64642.25</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>38993940</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>341.06</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="17">
         <v>220.47</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>168044</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>132992</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>-0.20860000000000001</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="17">
         <v>8036681800.7600002</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="17">
         <v>8596902049</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <v>6.9699999999999998E-2</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <v>0.50690000000000002</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="15">
         <v>0.23180000000000001</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="15">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="15">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="15">
         <v>0.16839999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="17">
         <v>39303.300000000003</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>5448819</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>331.34</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="17">
         <v>130.22999999999999</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>19738</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>18054</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <v>-8.5300000000000001E-2</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="17">
         <v>709439343.50999999</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="17">
         <v>709581867</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <v>0.48509999999999998</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="15">
         <v>0.15179999999999999</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="15">
         <v>0.1132</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="15">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="15">
         <v>0.19009999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="17">
         <v>62159.32</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>3584730</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>456.02</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="17">
         <v>283.45999999999998</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>18492</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>16347</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>-0.11600000000000001</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="17">
         <v>939046471.44000006</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="17">
         <v>1016118399</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <v>8.2100000000000006E-2</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="15">
         <v>0.39190000000000003</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="15">
         <v>0.44109999999999999</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="15">
         <v>0</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="15">
         <v>8.4599999999999995E-2</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="15">
         <v>8.2299999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="17">
         <v>39080.35</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>944076</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>721.76</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="17">
         <v>282.07</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>6710</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>6814</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <v>1.55E-2</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="17">
         <v>250180697.22</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="17">
         <v>266293531.53999999</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="15">
         <v>6.4399999999999999E-2</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
         <v>0.33189999999999997</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="15">
         <v>0.16220000000000001</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="15">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="15">
         <v>0.2429</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="15">
         <v>0.2626</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="17">
         <v>19069.240000000002</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>20244914</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>496.75</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="17">
         <v>94.73</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>101324</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>100567</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="17">
         <v>2175001881.6199999</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="17">
         <v>1917735951</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="15">
         <v>-0.1183</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <v>0.34720000000000001</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="15">
         <v>0.1895</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="15">
         <v>8.3099999999999993E-2</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="15">
         <v>0.18240000000000001</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="15">
         <v>0.19789999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="17">
         <v>19977.12</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>10199398</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>452.43</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="17">
         <v>90.38</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>49250</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>46145</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>-6.3E-2</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="17">
         <v>937934701.33000004</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="17">
         <v>921844209.55999994</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="15">
         <v>-1.72E-2</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <v>0.2767</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="15">
         <v>0.21959999999999999</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="15">
         <v>0.14430000000000001</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="15">
         <v>0.20399999999999999</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="15">
         <v>0.15540000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="17">
         <v>29425.39</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>1425157</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>425.43</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="17">
         <v>125.18</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>6291</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>6063</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <v>-3.6200000000000003E-2</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="17">
         <v>168911004.66999999</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="17">
         <v>178406163.34999999</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
         <v>5.62E-2</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="15">
         <v>0.58179999999999998</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="15">
         <v>0</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="15">
         <v>0.19650000000000001</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="15">
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="15">
         <v>0.1731</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="17">
         <v>22181.74</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>1652828</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>491.28</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="17">
         <v>108.97</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>7495</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>8120</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <v>8.3400000000000002E-2</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="17">
         <v>152219153.69999999</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="17">
         <v>180115744</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="15">
         <v>0.18329999999999999</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="15">
         <v>0.3044</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="15">
         <v>0.157</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="15">
         <v>0.13220000000000001</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="15">
         <v>0.21310000000000001</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="15">
         <v>0.19320000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="17">
         <v>33506.51</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>12839047</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>370.92</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="17">
         <v>124.28</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>44979</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>47622</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="17">
         <v>1325688697.6300001</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="17">
         <v>1595647075</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <v>0.2036</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="15">
         <v>0.49270000000000003</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="15">
         <v>0.41</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="15">
         <v>0</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O14" s="15">
         <v>9.7299999999999998E-2</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="17">
         <v>18065.29</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>6612768</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>433.34</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="17">
         <v>78.28</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>28332</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>28656</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="15">
         <v>1.14E-2</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="17">
         <v>578737303.25</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="17">
         <v>517678909</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="15">
         <v>-0.1055</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="15">
         <v>0.39340000000000003</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="15">
         <v>0.2266</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="15">
         <v>2.3900000000000001E-2</v>
       </c>
-      <c r="O15" s="16">
+      <c r="O15" s="15">
         <v>0.17860000000000001</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="15">
         <v>0.17749999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="17">
         <v>37907.53</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>3121997</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>262.48</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="17">
         <v>99.5</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>8384</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>8194.5400000000009</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="15">
         <v>-2.2599999999999999E-2</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="17">
         <v>298477658.37</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="17">
         <v>310634761.66000003</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <v>4.07E-2</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="M16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="17" t="s">
+      <c r="N16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="17" t="s">
+      <c r="O16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="17" t="s">
+      <c r="P16" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="17">
         <v>24510.89</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>2906721</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>333.61</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="17">
         <v>81.77</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>8689</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>9697</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="15">
         <v>0.11600000000000001</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="17">
         <v>233231735.72</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="17">
         <v>237682123</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="15">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="M17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="N17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="O17" s="17" t="s">
+      <c r="O17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="P17" s="17" t="s">
+      <c r="P17" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="17">
         <v>16681.07</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>4424611</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>476.02</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="17">
         <v>79.41</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>20443</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>21062</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="15">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="17">
         <v>369125775.26999998</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="17">
         <v>351336792.02999997</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="15">
         <v>-4.82E-2</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="15">
         <v>0.2412</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="15">
         <v>0.1426</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N18" s="15">
         <v>0.29499999999999998</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="15">
         <v>0.15310000000000001</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="15">
         <v>0.1681</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="17">
         <v>16251.07</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>4668960</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>820.23</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="17">
         <v>133.30000000000001</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>39939</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>38296</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="15">
         <v>-4.1099999999999998E-2</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="17">
         <v>667693269.40999997</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="17">
         <v>622350856</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="15">
         <v>-6.7900000000000002E-2</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="15">
         <v>0.29399999999999998</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19" s="15">
         <v>0.17299999999999999</v>
       </c>
-      <c r="N19" s="16">
+      <c r="N19" s="15">
         <v>0.33310000000000001</v>
       </c>
-      <c r="O19" s="16">
+      <c r="O19" s="15">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="P19" s="16">
+      <c r="P19" s="15">
         <v>0.15429999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="17">
         <v>44601.39</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>5994983</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>400.8</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="17">
         <v>178.76</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>25259</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>24028</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="15">
         <v>-4.87E-2</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="17">
         <v>1102632491.4000001</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="17">
         <v>1071682231</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="15">
         <v>-2.81E-2</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="15">
         <v>0.43559999999999999</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="15">
         <v>0.2238</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N20" s="15">
         <v>1.9E-3</v>
       </c>
-      <c r="O20" s="16">
+      <c r="O20" s="15">
         <v>0.15690000000000001</v>
       </c>
-      <c r="P20" s="16">
+      <c r="P20" s="15">
         <v>0.18179999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="17">
         <v>55170.43</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>6784240</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>158.78</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="17">
         <v>87.6</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>11478</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>10772</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="15">
         <v>-6.1499999999999999E-2</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="17">
         <v>575908502.20000005</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="17">
         <v>594295857.13</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="15">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="15">
         <v>0.67700000000000005</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M21" s="15">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N21" s="15">
         <v>0</v>
       </c>
-      <c r="O21" s="16">
+      <c r="O21" s="15">
         <v>0.1598</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21" s="15">
         <v>0.14030000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="17">
         <v>35808.949999999997</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>9917715</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>437.35</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="17">
         <v>156.61000000000001</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>45241</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>43375</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="15">
         <v>-4.1200000000000001E-2</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="17">
         <v>1773912931.5799999</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="17">
         <v>1553213339</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="15">
         <v>-0.1244</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L22" s="15">
         <v>0.41449999999999998</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="15">
         <v>0.3493</v>
       </c>
-      <c r="N22" s="16">
+      <c r="N22" s="15">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="O22" s="16">
+      <c r="O22" s="15">
         <v>8.4599999999999995E-2</v>
       </c>
-      <c r="P22" s="16">
+      <c r="P22" s="15">
         <v>0.14599999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="17">
         <v>41365.75</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>5482435</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>178.02</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="17">
         <v>73.64</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>9374</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>9760</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="15">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="17">
         <v>391387178.88</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="17">
         <v>403729705</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="15">
         <v>3.15E-2</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L23" s="15">
         <v>0.432</v>
       </c>
-      <c r="M23" s="16">
+      <c r="M23" s="15">
         <v>0.216</v>
       </c>
-      <c r="N23" s="16">
+      <c r="N23" s="15">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="O23" s="16">
+      <c r="O23" s="15">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="P23" s="16">
+      <c r="P23" s="15">
         <v>0.2656</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="17">
         <v>22187.06</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>6076204</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>531.32000000000005</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="17">
         <v>117.88</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>30418</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>32284</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="15">
         <v>6.13E-2</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="17">
         <v>727452301.47000003</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="17">
         <v>716287058.32000005</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="15">
         <v>-1.5299999999999999E-2</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L24" s="15">
         <v>0.40439999999999998</v>
       </c>
-      <c r="M24" s="16">
+      <c r="M24" s="15">
         <v>0.20619999999999999</v>
       </c>
-      <c r="N24" s="16">
+      <c r="N24" s="15">
         <v>0</v>
       </c>
-      <c r="O24" s="16">
+      <c r="O24" s="15">
         <v>0.20580000000000001</v>
       </c>
-      <c r="P24" s="16">
+      <c r="P24" s="15">
         <v>0.18360000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="17">
         <v>33577.56</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>1032073</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>274.5</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="17">
         <v>92.17</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>2595</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>2833</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="15">
         <v>9.1700000000000004E-2</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="17">
         <v>84262869.370000005</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="17">
         <v>95125223.349999994</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="15">
         <v>0.12889999999999999</v>
       </c>
-      <c r="L25" s="16">
+      <c r="L25" s="15">
         <v>0.25790000000000002</v>
       </c>
-      <c r="M25" s="16">
+      <c r="M25" s="15">
         <v>0.1188</v>
       </c>
-      <c r="N25" s="16">
+      <c r="N25" s="15">
         <v>0.32629999999999998</v>
       </c>
-      <c r="O25" s="16">
+      <c r="O25" s="15">
         <v>0.193</v>
       </c>
-      <c r="P25" s="16">
+      <c r="P25" s="15">
         <v>0.104</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="17">
         <v>17851.11</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>2883758</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>473.86</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="17">
         <v>84.59</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>12619</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <v>13665</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="15">
         <v>8.2900000000000001E-2</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="17">
         <v>285827951.32999998</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="17">
         <v>243935441.12</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="15">
         <v>-0.14660000000000001</v>
       </c>
-      <c r="L26" s="16">
+      <c r="L26" s="15">
         <v>0.5111</v>
       </c>
-      <c r="M26" s="16">
+      <c r="M26" s="15">
         <v>0.2266</v>
       </c>
-      <c r="N26" s="16">
+      <c r="N26" s="15">
         <v>0</v>
       </c>
-      <c r="O26" s="16">
+      <c r="O26" s="15">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="P26" s="16">
+      <c r="P26" s="15">
         <v>0.20519999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="17">
         <v>61602.73</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>8935421</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>246.12</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="17">
         <v>151.62</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>25822</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>21992</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="15">
         <v>-0.14829999999999999</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="17">
         <v>1514062321.3699999</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="17">
         <v>1354767292</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K27" s="15">
         <v>-0.1052</v>
       </c>
-      <c r="L27" s="16">
+      <c r="L27" s="15">
         <v>0.44619999999999999</v>
       </c>
-      <c r="M27" s="16">
+      <c r="M27" s="15">
         <v>0.2477</v>
       </c>
-      <c r="N27" s="16">
+      <c r="N27" s="15">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="O27" s="16">
+      <c r="O27" s="15">
         <v>0.1205</v>
       </c>
-      <c r="P27" s="16">
+      <c r="P27" s="15">
         <v>0.18429999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="17">
         <v>36832.29</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>2080328</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>344.51</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="17">
         <v>126.89</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>6538</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>7167</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="15">
         <v>9.6199999999999994E-2</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="17">
         <v>274309692.38</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="17">
         <v>263976999</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K28" s="15">
         <v>-3.7699999999999997E-2</v>
       </c>
-      <c r="L28" s="16">
+      <c r="L28" s="15">
         <v>0.27439999999999998</v>
       </c>
-      <c r="M28" s="16">
+      <c r="M28" s="15">
         <v>0.1285</v>
       </c>
-      <c r="N28" s="16">
+      <c r="N28" s="15">
         <v>0.32329999999999998</v>
       </c>
-      <c r="O28" s="16">
+      <c r="O28" s="15">
         <v>0.1678</v>
       </c>
-      <c r="P28" s="16">
+      <c r="P28" s="15">
         <v>0.10589999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="17">
         <v>69354.78</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>19747183</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>269.31</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="17">
         <v>186.78</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <v>59237</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>53181</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="15">
         <v>-0.1022</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="17">
         <v>3990824975.1300001</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="17">
         <v>3688356319</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K29" s="15">
         <v>-7.5800000000000006E-2</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L29" s="15">
         <v>0.50109999999999999</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M29" s="15">
         <v>0.32440000000000002</v>
       </c>
-      <c r="N29" s="16">
+      <c r="N29" s="15">
         <v>0</v>
       </c>
-      <c r="O29" s="16">
+      <c r="O29" s="15">
         <v>0.1016</v>
       </c>
-      <c r="P29" s="16">
+      <c r="P29" s="15">
         <v>7.2800000000000004E-2</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="17">
         <v>30180.47</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>10035186</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>369.36</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="17">
         <v>111.47</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <v>40203</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <v>37066</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="15">
         <v>-7.8E-2</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="17">
         <v>1194046295.8</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="17">
         <v>1118669204</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="15">
         <v>-6.3100000000000003E-2</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L30" s="15">
         <v>0.48649999999999999</v>
       </c>
-      <c r="M30" s="16">
+      <c r="M30" s="15">
         <v>0.24610000000000001</v>
       </c>
-      <c r="N30" s="16">
+      <c r="N30" s="15">
         <v>1E-4</v>
       </c>
-      <c r="O30" s="16">
+      <c r="O30" s="15">
         <v>0.1096</v>
       </c>
-      <c r="P30" s="16">
+      <c r="P30" s="15">
         <v>0.15770000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="17">
         <v>38601.410000000003</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>756835</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>224.09</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="17">
         <v>86.5</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <v>1479</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <v>1696</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="15">
         <v>0.1467</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="17">
         <v>61217367.780000001</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="17">
         <v>65467993</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31" s="15">
         <v>6.9400000000000003E-2</v>
       </c>
-      <c r="L31" s="17" t="s">
+      <c r="L31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="M31" s="17" t="s">
+      <c r="M31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="N31" s="17" t="s">
+      <c r="N31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="O31" s="17" t="s">
+      <c r="O31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="P31" s="17" t="s">
+      <c r="P31" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="17">
         <v>26509.42</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>11605090</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>434.74</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="17">
         <v>115.25</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <v>50960</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <v>50452</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H32" s="15">
         <v>-0.01</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="17">
         <v>1534239950.24</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="17">
         <v>1337453060</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="15">
         <v>-0.1283</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="15">
         <v>0.3639</v>
       </c>
-      <c r="M32" s="16">
+      <c r="M32" s="15">
         <v>0.27160000000000001</v>
       </c>
-      <c r="N32" s="16">
+      <c r="N32" s="15">
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="O32" s="16">
+      <c r="O32" s="15">
         <v>9.0800000000000006E-2</v>
       </c>
-      <c r="P32" s="16">
+      <c r="P32" s="15">
         <v>0.22009999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:23" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="17">
         <v>16496.830000000002</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>3907414</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>700.44</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="17">
         <v>115.55</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <v>25897</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <v>27369</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="15">
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="17">
         <v>502586473.38999999</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="17">
         <v>451501686</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="15">
         <v>-0.1016</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L33" s="15">
         <v>0.36659999999999998</v>
       </c>
-      <c r="M33" s="16">
+      <c r="M33" s="15">
         <v>0.1895</v>
       </c>
-      <c r="N33" s="16">
+      <c r="N33" s="15">
         <v>0.28139999999999998</v>
       </c>
-      <c r="O33" s="16">
+      <c r="O33" s="15">
         <v>0.108</v>
       </c>
-      <c r="P33" s="16">
+      <c r="P33" s="15">
         <v>5.45E-2</v>
       </c>
     </row>
     <row r="34" spans="1:23" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="17">
         <v>44020.800000000003</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>4024634</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>361.23</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="17">
         <v>159.01</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <v>13819</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="6">
         <v>14538</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="15">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="17">
         <v>627753765.08000004</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="17">
         <v>639974399.49000001</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="15">
         <v>1.95E-2</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="15">
         <v>0.42399999999999999</v>
       </c>
-      <c r="M34" s="16">
+      <c r="M34" s="15">
         <v>0.25030000000000002</v>
       </c>
-      <c r="N34" s="16">
+      <c r="N34" s="15">
         <v>0</v>
       </c>
-      <c r="O34" s="16">
+      <c r="O34" s="15">
         <v>6.2100000000000002E-2</v>
       </c>
-      <c r="P34" s="16">
+      <c r="P34" s="15">
         <v>0.2636</v>
       </c>
     </row>
     <row r="35" spans="1:23" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="17">
         <v>42726.84</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>12791904</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>393.73</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="17">
         <v>168.23</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <v>50622</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <v>50366</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="15">
         <v>-5.1000000000000004E-3</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="17">
         <v>1760004448.55</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="17">
         <v>2151980000</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="15">
         <v>0.22270000000000001</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L35" s="15">
         <v>0.43759999999999999</v>
       </c>
-      <c r="M35" s="16">
+      <c r="M35" s="15">
         <v>0.30630000000000002</v>
       </c>
-      <c r="N35" s="16">
+      <c r="N35" s="15">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="O35" s="16">
+      <c r="O35" s="15">
         <v>5.2900000000000003E-2</v>
       </c>
-      <c r="P35" s="16">
+      <c r="P35" s="15">
         <v>0.19370000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:23" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="17">
         <v>58563.51</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>1055607</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>301.44</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="17">
         <v>176.53</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <v>3351</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="6">
         <v>3182</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="15">
         <v>-5.04E-2</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="17">
         <v>175536150.12</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="17">
         <v>186349078</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K36" s="15">
         <v>6.1600000000000002E-2</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L36" s="15">
         <v>0.60780000000000001</v>
       </c>
-      <c r="M36" s="16">
+      <c r="M36" s="15">
         <v>0.30159999999999998</v>
       </c>
-      <c r="N36" s="16">
+      <c r="N36" s="15">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="O36" s="16">
+      <c r="O36" s="15">
         <v>4.87E-2</v>
       </c>
-      <c r="P36" s="16">
+      <c r="P36" s="15">
         <v>4.1500000000000002E-2</v>
       </c>
     </row>
     <row r="37" spans="1:23" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="17">
         <v>20053.05</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>4894834</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>444.82</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="17">
         <v>89.2</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <v>24710</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="6">
         <v>21773</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H37" s="15">
         <v>-0.11890000000000001</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="17">
         <v>447565286.41000003</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="17">
         <v>436615085</v>
       </c>
-      <c r="K37" s="16">
+      <c r="K37" s="15">
         <v>-2.4500000000000001E-2</v>
       </c>
-      <c r="L37" s="16">
+      <c r="L37" s="15">
         <v>0.47689999999999999</v>
       </c>
-      <c r="M37" s="16">
+      <c r="M37" s="15">
         <v>0.19789999999999999</v>
       </c>
-      <c r="N37" s="16">
+      <c r="N37" s="15">
         <v>0</v>
       </c>
-      <c r="O37" s="16">
+      <c r="O37" s="15">
         <v>0.1022</v>
       </c>
-      <c r="P37" s="16">
+      <c r="P37" s="15">
         <v>0.223</v>
       </c>
     </row>
     <row r="38" spans="1:23" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="17">
         <v>20748.060000000001</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>857919</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>410.8</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="17">
         <v>85.23</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="6">
         <v>3421.7</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="6">
         <v>3524.31</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H38" s="15">
         <v>0.03</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="17">
         <v>66177861.869999997</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="17">
         <v>73122593</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K38" s="15">
         <v>0.10489999999999999</v>
       </c>
-      <c r="L38" s="16">
+      <c r="L38" s="15">
         <v>0.33279999999999998</v>
       </c>
-      <c r="M38" s="16">
+      <c r="M38" s="15">
         <v>0.1236</v>
       </c>
-      <c r="N38" s="16">
+      <c r="N38" s="15">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="O38" s="16">
+      <c r="O38" s="15">
         <v>0.2848</v>
       </c>
-      <c r="P38" s="16">
+      <c r="P38" s="15">
         <v>0.25850000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:23" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="17">
         <v>23467.94</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>6595056</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>467.58</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="17">
         <v>109.73</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <v>28102</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="6">
         <v>30837</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H39" s="15">
         <v>9.7299999999999998E-2</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="17">
         <v>678030989.25</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="17">
         <v>723680760</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K39" s="15">
         <v>6.7299999999999999E-2</v>
       </c>
-      <c r="L39" s="16">
+      <c r="L39" s="15">
         <v>0.23300000000000001</v>
       </c>
-      <c r="M39" s="16">
+      <c r="M39" s="15">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="N39" s="16">
+      <c r="N39" s="15">
         <v>0.3488</v>
       </c>
-      <c r="O39" s="16">
+      <c r="O39" s="15">
         <v>0.15029999999999999</v>
       </c>
-      <c r="P39" s="16">
+      <c r="P39" s="15">
         <v>0.20710000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:23" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="17">
         <v>22011.5</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>27429639</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <v>543.79</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="17">
         <v>119.7</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="6">
         <v>154315</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="6">
         <v>149159</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H40" s="15">
         <v>-3.3399999999999999E-2</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="17">
         <v>3544624502.8000002</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="17">
         <v>3283213997</v>
       </c>
-      <c r="K40" s="16">
+      <c r="K40" s="15">
         <v>-7.3700000000000002E-2</v>
       </c>
-      <c r="L40" s="16">
+      <c r="L40" s="15">
         <v>0.39329999999999998</v>
       </c>
-      <c r="M40" s="16">
+      <c r="M40" s="15">
         <v>0.17560000000000001</v>
       </c>
-      <c r="N40" s="16">
+      <c r="N40" s="15">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="O40" s="16">
+      <c r="O40" s="15">
         <v>0.15890000000000001</v>
       </c>
-      <c r="P40" s="16">
+      <c r="P40" s="15">
         <v>0.23930000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="17">
         <v>22119.439999999999</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>2990632</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <v>230.95</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="17">
         <v>51.09</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <v>6578</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="6">
         <v>6907</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H41" s="15">
         <v>0.05</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="17">
         <v>148166777.88</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="17">
         <v>152778961.61000001</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K41" s="15">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="L41" s="16">
+      <c r="L41" s="15">
         <v>0.35449999999999998</v>
       </c>
-      <c r="M41" s="16">
+      <c r="M41" s="15">
         <v>0.37369999999999998</v>
       </c>
-      <c r="N41" s="16">
+      <c r="N41" s="15">
         <v>0.18790000000000001</v>
       </c>
-      <c r="O41" s="16">
+      <c r="O41" s="15">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="P41" s="16">
+      <c r="P41" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:23" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="17">
         <v>57614.92</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>626088</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <v>323.60000000000002</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="17">
         <v>186.44</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="6">
         <v>2247</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="6">
         <v>2026</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H42" s="15">
         <v>-9.8400000000000001E-2</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="17">
         <v>113853297.29000001</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="17">
         <v>116727820.11</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K42" s="15">
         <v>2.52E-2</v>
       </c>
-      <c r="L42" s="16">
+      <c r="L42" s="15">
         <v>0.33889999999999998</v>
       </c>
-      <c r="M42" s="16">
+      <c r="M42" s="15">
         <v>0.16650000000000001</v>
       </c>
-      <c r="N42" s="16">
+      <c r="N42" s="15">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="O42" s="16">
+      <c r="O42" s="15">
         <v>0.18690000000000001</v>
       </c>
-      <c r="P42" s="16">
+      <c r="P42" s="15">
         <v>0.21479999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:23" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="17">
         <v>21298.87</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>8367587</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>462.36</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="17">
         <v>98.48</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="6">
         <v>38778</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="6">
         <v>38688</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H43" s="15">
         <v>-2.3E-3</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="17">
         <v>799367853.86000001</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="17">
         <v>824010613</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K43" s="15">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="L43" s="16">
+      <c r="L43" s="15">
         <v>0.41399999999999998</v>
       </c>
-      <c r="M43" s="16">
+      <c r="M43" s="15">
         <v>0.25159999999999999</v>
       </c>
-      <c r="N43" s="16">
+      <c r="N43" s="15">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="O43" s="16">
+      <c r="O43" s="15">
         <v>0.15989999999999999</v>
       </c>
-      <c r="P43" s="16">
+      <c r="P43" s="15">
         <v>0.14419999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:23" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="17">
         <v>37841.46</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <v>7160290</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="6">
         <v>233.45</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="17">
         <v>88.34</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="6">
         <v>16554</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="6">
         <v>16716</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H44" s="15">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="17">
         <v>693643913.09000003</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="17">
         <v>632557822</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K44" s="15">
         <v>-8.8099999999999998E-2</v>
       </c>
-      <c r="L44" s="16">
+      <c r="L44" s="15">
         <v>0.54149999999999998</v>
       </c>
-      <c r="M44" s="16">
+      <c r="M44" s="15">
         <v>0.2054</v>
       </c>
-      <c r="N44" s="16">
+      <c r="N44" s="15">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="O44" s="16">
+      <c r="O44" s="15">
         <v>6.5100000000000005E-2</v>
       </c>
-      <c r="P44" s="16">
+      <c r="P44" s="15">
         <v>0.18720000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:23" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="17">
         <v>27458.080000000002</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>1841053</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>373.81</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="17">
         <v>102.64</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <v>6386</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="6">
         <v>6882</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H45" s="15">
         <v>7.7700000000000005E-2</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="17">
         <v>170268248.43000001</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="17">
         <v>188966523</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K45" s="15">
         <v>0.10979999999999999</v>
       </c>
-      <c r="L45" s="16">
+      <c r="L45" s="15">
         <v>0.38069999999999998</v>
       </c>
-      <c r="M45" s="16">
+      <c r="M45" s="15">
         <v>0.14779999999999999</v>
       </c>
-      <c r="N45" s="16">
+      <c r="N45" s="15">
         <v>0.20860000000000001</v>
       </c>
-      <c r="O45" s="16">
+      <c r="O45" s="15">
         <v>0.1123</v>
       </c>
-      <c r="P45" s="16">
+      <c r="P45" s="15">
         <v>0.15060000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:23" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="17">
         <v>38644.379999999997</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>5767891</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <v>389.41</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="17">
         <v>150.49</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="6">
         <v>23015</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="6">
         <v>22461</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H46" s="15">
         <v>-2.41E-2</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="17">
         <v>868383552.84000003</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="17">
         <v>867991403.30999994</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K46" s="15">
         <v>-5.0000000000000001E-4</v>
       </c>
-      <c r="L46" s="16">
+      <c r="L46" s="15">
         <v>0.43730000000000002</v>
       </c>
-      <c r="M46" s="16">
+      <c r="M46" s="15">
         <v>0.2152</v>
       </c>
-      <c r="N46" s="16">
+      <c r="N46" s="15">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="O46" s="16">
+      <c r="O46" s="15">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="P46" s="16">
+      <c r="P46" s="15">
         <v>0.27429999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:23" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
+      <c r="A47" s="11"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
     </row>
     <row r="48" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="R48" s="5"/>
@@ -2998,7 +2997,7 @@
       <c r="W48" s="5"/>
     </row>
     <row r="49" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
+      <c r="A49" s="14"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
@@ -3021,7 +3020,7 @@
       <c r="W50" s="5"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A51" s="15"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -3030,7 +3029,7 @@
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A52" s="14"/>
+      <c r="A52" s="13"/>
       <c r="B52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -3039,7 +3038,7 @@
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A53" s="15"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -3048,7 +3047,7 @@
       <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A54" s="15"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -3057,7 +3056,7 @@
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A55" s="15"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -3066,7 +3065,7 @@
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A56" s="15"/>
+      <c r="A56" s="14"/>
       <c r="B56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
